--- a/tests/outputs/test_daily_details_thick_borders_appended.xlsx
+++ b/tests/outputs/test_daily_details_thick_borders_appended.xlsx
@@ -33,7 +33,6 @@
       <color rgb="00000000"/>
     </font>
     <font>
-      <b val="1"/>
       <sz val="11"/>
     </font>
   </fonts>
@@ -211,17 +210,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -745,7 +752,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45871</v>
+        <v>45931</v>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
@@ -809,7 +816,7 @@
       </c>
       <c r="V2" s="3" t="inlineStr">
         <is>
-          <t>2025-08-02|CX1|Driver 1|BW1</t>
+          <t>2025-10-01|CX1|Driver 1|BW1</t>
         </is>
       </c>
       <c r="W2" s="3" t="inlineStr"/>
@@ -817,7 +824,7 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="n">
-        <v>45871</v>
+        <v>45931</v>
       </c>
       <c r="B3" s="6" t="inlineStr">
         <is>
@@ -881,7 +888,7 @@
       </c>
       <c r="V3" s="6" t="inlineStr">
         <is>
-          <t>2025-08-02|CX2|Driver 2|BW2</t>
+          <t>2025-10-01|CX2|Driver 2|BW2</t>
         </is>
       </c>
       <c r="W3" s="6" t="inlineStr"/>
@@ -889,7 +896,7 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="n">
-        <v>45871</v>
+        <v>45931</v>
       </c>
       <c r="B4" s="6" t="inlineStr">
         <is>
@@ -953,7 +960,7 @@
       </c>
       <c r="V4" s="6" t="inlineStr">
         <is>
-          <t>2025-08-02|CX3|Driver 3|BW3</t>
+          <t>2025-10-01|CX3|Driver 3|BW3</t>
         </is>
       </c>
       <c r="W4" s="6" t="inlineStr"/>
@@ -961,7 +968,7 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
-        <v>45871</v>
+        <v>45931</v>
       </c>
       <c r="B5" s="6" t="inlineStr">
         <is>
@@ -1025,7 +1032,7 @@
       </c>
       <c r="V5" s="6" t="inlineStr">
         <is>
-          <t>2025-08-02|CX4|Driver 4|BW4</t>
+          <t>2025-10-01|CX4|Driver 4|BW4</t>
         </is>
       </c>
       <c r="W5" s="6" t="inlineStr"/>
@@ -1033,7 +1040,7 @@
     </row>
     <row r="6">
       <c r="A6" s="8" t="n">
-        <v>45871</v>
+        <v>45931</v>
       </c>
       <c r="B6" s="9" t="inlineStr">
         <is>
@@ -1097,7 +1104,7 @@
       </c>
       <c r="V6" s="9" t="inlineStr">
         <is>
-          <t>2025-08-02|CX5|Driver 5|BW5</t>
+          <t>2025-10-01|CX5|Driver 5|BW5</t>
         </is>
       </c>
       <c r="W6" s="9" t="inlineStr"/>
@@ -1105,7 +1112,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45872</v>
+        <v>45932</v>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
@@ -1170,7 +1177,7 @@
       </c>
       <c r="W7" s="3" t="inlineStr">
         <is>
-          <t>2025-08-03|CX10|Driver 10|BW10</t>
+          <t>2025-10-02|CX10|Driver 10|BW10</t>
         </is>
       </c>
       <c r="X7" s="4" t="inlineStr"/>
@@ -1178,7 +1185,7 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
-        <v>45872</v>
+        <v>45932</v>
       </c>
       <c r="B8" s="6" t="inlineStr">
         <is>
@@ -1243,7 +1250,7 @@
       </c>
       <c r="W8" s="6" t="inlineStr">
         <is>
-          <t>2025-08-03|CX11|Driver 11|BW11</t>
+          <t>2025-10-02|CX11|Driver 11|BW11</t>
         </is>
       </c>
       <c r="X8" s="7" t="inlineStr"/>
@@ -1251,7 +1258,7 @@
     </row>
     <row r="9">
       <c r="A9" s="8" t="n">
-        <v>45872</v>
+        <v>45932</v>
       </c>
       <c r="B9" s="9" t="inlineStr">
         <is>
@@ -1316,7 +1323,7 @@
       </c>
       <c r="W9" s="9" t="inlineStr">
         <is>
-          <t>2025-08-03|CX12|Driver 12|BW12</t>
+          <t>2025-10-02|CX12|Driver 12|BW12</t>
         </is>
       </c>
       <c r="X9" s="10" t="inlineStr"/>
@@ -1324,7 +1331,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45873</v>
+        <v>45933</v>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
@@ -1389,7 +1396,7 @@
       </c>
       <c r="W10" s="3" t="inlineStr">
         <is>
-          <t>2025-08-04|CX20|Driver 20|BW20</t>
+          <t>2025-10-03|CX20|Driver 20|BW20</t>
         </is>
       </c>
       <c r="X10" s="4" t="inlineStr"/>
@@ -1397,7 +1404,7 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
-        <v>45873</v>
+        <v>45933</v>
       </c>
       <c r="B11" s="6" t="inlineStr">
         <is>
@@ -1462,7 +1469,7 @@
       </c>
       <c r="W11" s="6" t="inlineStr">
         <is>
-          <t>2025-08-04|CX21|Driver 21|BW21</t>
+          <t>2025-10-03|CX21|Driver 21|BW21</t>
         </is>
       </c>
       <c r="X11" s="7" t="inlineStr"/>
@@ -1470,7 +1477,7 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
-        <v>45873</v>
+        <v>45933</v>
       </c>
       <c r="B12" s="6" t="inlineStr">
         <is>
@@ -1535,7 +1542,7 @@
       </c>
       <c r="W12" s="6" t="inlineStr">
         <is>
-          <t>2025-08-04|CX22|Driver 22|BW22</t>
+          <t>2025-10-03|CX22|Driver 22|BW22</t>
         </is>
       </c>
       <c r="X12" s="7" t="inlineStr"/>
@@ -1543,7 +1550,7 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
-        <v>45873</v>
+        <v>45933</v>
       </c>
       <c r="B13" s="6" t="inlineStr">
         <is>
@@ -1608,7 +1615,7 @@
       </c>
       <c r="W13" s="6" t="inlineStr">
         <is>
-          <t>2025-08-04|CX23|Driver 23|BW23</t>
+          <t>2025-10-03|CX23|Driver 23|BW23</t>
         </is>
       </c>
       <c r="X13" s="7" t="inlineStr"/>
@@ -1616,7 +1623,7 @@
     </row>
     <row r="14">
       <c r="A14" s="11" t="n">
-        <v>45873</v>
+        <v>45933</v>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
@@ -1681,7 +1688,7 @@
       </c>
       <c r="W14" s="3" t="inlineStr">
         <is>
-          <t>2025-08-04|CX30|Driver 30|BW30</t>
+          <t>2025-10-03|CX30|Driver 30|BW30</t>
         </is>
       </c>
       <c r="X14" s="4" t="inlineStr"/>
@@ -1689,7 +1696,7 @@
     </row>
     <row r="15">
       <c r="A15" s="12" t="n">
-        <v>45873</v>
+        <v>45933</v>
       </c>
       <c r="B15" s="6" t="inlineStr">
         <is>
@@ -1754,7 +1761,7 @@
       </c>
       <c r="W15" s="6" t="inlineStr">
         <is>
-          <t>2025-08-04|CX31|Driver 31|BW31</t>
+          <t>2025-10-03|CX31|Driver 31|BW31</t>
         </is>
       </c>
       <c r="X15" s="7" t="inlineStr"/>
@@ -1762,7 +1769,7 @@
     </row>
     <row r="16">
       <c r="A16" s="13" t="n">
-        <v>45873</v>
+        <v>45933</v>
       </c>
       <c r="B16" s="9" t="inlineStr">
         <is>
@@ -1827,7 +1834,7 @@
       </c>
       <c r="W16" s="9" t="inlineStr">
         <is>
-          <t>2025-08-04|CX32|Driver 32|BW32</t>
+          <t>2025-10-03|CX32|Driver 32|BW32</t>
         </is>
       </c>
       <c r="X16" s="10" t="inlineStr"/>
